--- a/live-stats/12/TAMU-Classic/TEXAS_TAMU.xlsx
+++ b/live-stats/12/TAMU-Classic/TEXAS_TAMU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\live-stats\12\TAMU-Classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2219A1CF-4F7B-4F8A-9393-1FD8C4F14255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85642394-7DCC-49DD-9FB1-58573DBA1D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
   <si>
     <t>A</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>NICK ROY</t>
+  </si>
+  <si>
+    <t>NATHAN LEWIS</t>
+  </si>
+  <si>
+    <t>CARLY JORDAN</t>
   </si>
 </sst>
 </file>
@@ -748,7 +754,7 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -29013,8 +29019,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29162,7 +29168,9 @@
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -29262,6 +29270,9 @@
     <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
